--- a/Trabalhos/2B/Avaliação.xlsx
+++ b/Trabalhos/2B/Avaliação.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\Módulos\005_Projeto_de_iniciação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\Trabalhos\2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20B483-5B61-4775-BFF6-FB9EA327E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC34CFA-7B86-4CA6-9E42-DDE56C4F8F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96176060-1FAE-457F-AC04-57D50351FCF7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>N.º mecanográfico</t>
   </si>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Jore Vieira</t>
-  </si>
-  <si>
-    <t>Re</t>
   </si>
   <si>
     <t>Comentários</t>
@@ -210,13 +204,58 @@
   </si>
   <si>
     <t>menos 0.25 se não funcionar  100%</t>
+  </si>
+  <si>
+    <t>JORGE VIEIRA</t>
+  </si>
+  <si>
+    <t>Entrou depois</t>
+  </si>
+  <si>
+    <t>Estrutura</t>
+  </si>
+  <si>
+    <t>Calendarização</t>
+  </si>
+  <si>
+    <t>Diagrama de ligações</t>
+  </si>
+  <si>
+    <t>Diagrama de estados</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +279,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +317,26 @@
         <bgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -305,11 +368,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -343,13 +415,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,10 +751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689FA48-CC26-455A-9735-EF85F01A8D08}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:R34"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,31 +795,31 @@
         <v>20</v>
       </c>
       <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="F2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="R2" t="s">
         <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="F2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="R2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
@@ -777,10 +863,10 @@
         <v>42</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
@@ -866,10 +952,10 @@
         <f>(F5*0.5 + G5*0.5)*$G$1 +(H5*0.5 + I5*0.5)*$I$1 + (J5*0.5+K5*0.5)*$K$1+(L5*0.5+M5*0.5)*$M$1</f>
         <v>14.75</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="17"/>
+      <c r="O5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
@@ -917,7 +1003,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="2:18" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" ht="87" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>1200890</v>
       </c>
@@ -958,8 +1044,8 @@
         <f t="shared" ref="N8:N10" si="0">(F8*0.5 + G8*0.5)*$G$1 +(H8*0.5 + I8*0.5)*$I$1 + (J8*0.5+K8*0.5)*$K$1+(L8*0.5+M8*0.5)*$M$1</f>
         <v>16.75</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>48</v>
+      <c r="O8" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="87" x14ac:dyDescent="0.35">
@@ -1003,11 +1089,11 @@
         <f t="shared" si="0"/>
         <v>14.75</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="O9" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>1200909</v>
       </c>
@@ -1048,8 +1134,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>47</v>
+      <c r="O10" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:18" hidden="1" x14ac:dyDescent="0.35">
@@ -1213,7 +1299,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>1201164</v>
       </c>
@@ -1254,11 +1340,11 @@
         <f t="shared" ref="N18:N22" si="1">(F18*0.5 + G18*0.5)*$G$1 +(H18*0.5 + I18*0.5)*$I$1 + (J18*0.5+K18*0.5)*$K$1+(L18*0.5+M18*0.5)*$M$1</f>
         <v>17</v>
       </c>
-      <c r="O18" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="O18" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>1201171</v>
       </c>
@@ -1299,11 +1385,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O19" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="O19" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="87" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>1201223</v>
       </c>
@@ -1344,11 +1430,11 @@
         <f t="shared" si="1"/>
         <v>14.75</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="O20" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>1201233</v>
       </c>
@@ -1389,11 +1475,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O21" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="232" x14ac:dyDescent="0.35">
+      <c r="O21" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>1201360</v>
       </c>
@@ -1434,8 +1520,8 @@
         <f t="shared" si="1"/>
         <v>15.875</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>46</v>
+      <c r="O22" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
@@ -1502,8 +1588,8 @@
         <f>(F24*0.5 + G24*0.5)*$G$1 +(H24*0.5 + I24*0.5)*$I$1 + (J24*0.5+K24*0.5)*$K$1+(L24*0.5+M24*0.5)*$M$1</f>
         <v>16.75</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>48</v>
+      <c r="O24" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
@@ -1616,8 +1702,8 @@
         <f t="shared" ref="N28:N31" si="2">(F28*0.5 + G28*0.5)*$G$1 +(H28*0.5 + I28*0.5)*$I$1 + (J28*0.5+K28*0.5)*$K$1+(L28*0.5+M28*0.5)*$M$1</f>
         <v>15.75</v>
       </c>
-      <c r="O28" s="16" t="s">
-        <v>52</v>
+      <c r="O28" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="58" x14ac:dyDescent="0.35">
@@ -1661,11 +1747,11 @@
         <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
-      <c r="O29" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="232" x14ac:dyDescent="0.35">
+      <c r="O29" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>1201674</v>
       </c>
@@ -1706,8 +1792,8 @@
         <f t="shared" si="2"/>
         <v>15.875</v>
       </c>
-      <c r="O30" s="16" t="s">
-        <v>46</v>
+      <c r="O30" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:15" ht="87" x14ac:dyDescent="0.35">
@@ -1751,8 +1837,8 @@
         <f t="shared" si="2"/>
         <v>14.75</v>
       </c>
-      <c r="O31" s="16" t="s">
-        <v>48</v>
+      <c r="O31" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
@@ -1778,13 +1864,52 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B33" s="19">
         <v>1200908</v>
       </c>
+      <c r="C33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="20">
+        <v>7</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0</v>
+      </c>
+      <c r="K33" s="20">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0</v>
+      </c>
+      <c r="N33" s="20">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="I36" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:N32" xr:uid="{9689FA48-CC26-455A-9735-EF85F01A8D08}">
@@ -1807,15 +1932,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694AB107-AF3A-401F-9D2F-3D65AA444A8F}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>44</v>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C1" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F1" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G1" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H1">
+        <f>SUM(C1:G1)</f>
+        <v>1</v>
+      </c>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="23">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1825,12 +2033,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B05EBDB-734B-4ABB-8E46-3132B570AE3B}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="23">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
